--- a/SanFrancisco_graph.xlsx
+++ b/SanFrancisco_graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\MSRA\work\RoutingGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\MSRA\work\MDPCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5246B6-67B0-4594-9C0C-7D0C7D569A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68600EA5-B52B-44AB-BEEE-E97093C2C218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07467D18-F02D-4932-9A04-0949912BB548}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1582,116 +1582,6 @@
       </c>
       <c r="C91">
         <v>3.2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>0</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>2</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>3</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>4</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>5</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>6</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>7</v>
-      </c>
-      <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>8</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>9</v>
-      </c>
-      <c r="B101">
-        <v>9</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC8B5A5-7E83-41E5-8A72-ACC35115E94E}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
